--- a/Daily_Update_Excel_Sheet/Daily_Update_Sheet.xlsx
+++ b/Daily_Update_Excel_Sheet/Daily_Update_Sheet.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Topics Covered</t>
+    <t xml:space="preserve">Topics Worked On</t>
   </si>
   <si>
     <t xml:space="preserve">What i learned</t>
@@ -39,14 +39,33 @@
 3.Redux-persist</t>
   </si>
   <si>
-    <t xml:space="preserve">1.Refreshed React basic topics.
+    <t xml:space="preserve">1.Refreshed React topics.
 2.Continued working on React project to get practiced.</t>
   </si>
   <si>
     <t xml:space="preserve">12-12-23</t>
   </si>
   <si>
+    <t xml:space="preserve">1.axios
+2.SASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Created the manage flight page for the admin dashboard.
+2.Integrated flight management admin APIs with the manage flight page</t>
+  </si>
+  <si>
     <t xml:space="preserve">13-12-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Created an UI for Flight Booking page to the project.
+2.Integrated APIs with the front end.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-12-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Created Filter UI for Flight Booking.
+2.Implemented Filter functionallity to the project.</t>
   </si>
 </sst>
 </file>
@@ -56,11 +75,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+  <fonts count="7">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -79,12 +99,19 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -131,20 +158,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -168,53 +203,71 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="53.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="76.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="61.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="53.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Daily_Update_Excel_Sheet/Daily_Update_Sheet.xlsx
+++ b/Daily_Update_Excel_Sheet/Daily_Update_Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -66,6 +66,25 @@
   <si>
     <t xml:space="preserve">1.Created Filter UI for Flight Booking.
 2.Implemented Filter functionallity to the project.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-12-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.SASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Created the booking details UI.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-12-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Rayzorpay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Integrated Payment Gateway with the payment page.</t>
   </si>
 </sst>
 </file>
@@ -75,7 +94,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -109,11 +128,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,7 +172,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -176,10 +190,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -203,7 +213,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -250,7 +260,7 @@
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -261,18 +271,50 @@
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Daily_Update_Excel_Sheet/Daily_Update_Sheet.xlsx
+++ b/Daily_Update_Excel_Sheet/Daily_Update_Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t xml:space="preserve">1.Integrated Payment Gateway with the payment page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-12-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Created and Integrated the payment API for bus booking.</t>
   </si>
 </sst>
 </file>
@@ -301,9 +307,15 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>

--- a/Daily_Update_Excel_Sheet/Daily_Update_Sheet.xlsx
+++ b/Daily_Update_Excel_Sheet/Daily_Update_Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t xml:space="preserve">1.Created and Integrated the payment API for bus booking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-12-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Created and Integrated the payment API for flight booking.</t>
   </si>
 </sst>
 </file>
@@ -219,7 +225,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -318,9 +324,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>

--- a/Daily_Update_Excel_Sheet/Daily_Update_Sheet.xlsx
+++ b/Daily_Update_Excel_Sheet/Daily_Update_Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t xml:space="preserve">1.Created and Integrated the payment API for flight booking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-12-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Created and Integrated the payment API for train booking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-12-23</t>
   </si>
 </sst>
 </file>
@@ -106,7 +115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -140,6 +149,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,7 +198,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -203,6 +217,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -222,10 +240,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -332,10 +350,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
+    <row r="10" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Daily_Update_Excel_Sheet/Daily_Update_Sheet.xlsx
+++ b/Daily_Update_Excel_Sheet/Daily_Update_Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -47,7 +47,8 @@
   </si>
   <si>
     <t xml:space="preserve">1.axios
-2.SASS</t>
+2.SASS
+3.Spring Boot</t>
   </si>
   <si>
     <t xml:space="preserve">1.Created the manage flight page for the admin dashboard.
@@ -57,6 +58,27 @@
     <t xml:space="preserve">13-12-23</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.axios
+2.SASS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3.Spring Boot</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">1.Created an UI for Flight Booking page to the project.
 2.Integrated APIs with the front end.</t>
   </si>
@@ -71,9 +93,6 @@
     <t xml:space="preserve">15-12-23</t>
   </si>
   <si>
-    <t xml:space="preserve">1.SASS</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.Created the booking details UI.
 </t>
   </si>
@@ -90,6 +109,10 @@
     <t xml:space="preserve">19-12-23</t>
   </si>
   <si>
+    <t xml:space="preserve">1.axios
+2.SASS</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.Created and Integrated the payment API for bus booking.</t>
   </si>
   <si>
@@ -106,6 +129,45 @@
   </si>
   <si>
     <t xml:space="preserve">26-12-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.SASS
+2.Spring Boot</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Worked on My trips page.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2.Created API for mytrips section.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">27-12-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Integrated getmytrips API with FE.</t>
   </si>
 </sst>
 </file>
@@ -198,7 +260,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -220,6 +282,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -240,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -286,34 +352,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="53.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>15</v>
@@ -335,36 +401,70 @@
         <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" s="6" customFormat="true" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" s="6" customFormat="true" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" s="6" customFormat="true" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" s="6" customFormat="true" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Daily_Update_Excel_Sheet/Daily_Update_Sheet.xlsx
+++ b/Daily_Update_Excel_Sheet/Daily_Update_Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -58,27 +58,6 @@
     <t xml:space="preserve">13-12-23</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1.axios
-2.SASS
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">3.Spring Boot</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">1.Created an UI for Flight Booking page to the project.
 2.Integrated APIs with the front end.</t>
   </si>
@@ -135,39 +114,18 @@
 2.Spring Boot</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Worked on My trips page.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2.Created API for mytrips section.</t>
-    </r>
+    <t xml:space="preserve">1.Worked on My trips page.
+2.Created API for mytrips section.</t>
   </si>
   <si>
     <t xml:space="preserve">27-12-23</t>
   </si>
   <si>
-    <t xml:space="preserve">1.Integrated getmytrips API with FE.</t>
+    <t xml:space="preserve">1.Integrated getmytrips API with FE.
+2.Learned a new hovering effect in React JS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-12-23</t>
   </si>
 </sst>
 </file>
@@ -177,7 +135,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -211,11 +169,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,7 +213,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -279,14 +232,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -309,7 +254,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -357,115 +302,107 @@
         <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="4" t="s">
+    </row>
+    <row r="12" s="3" customFormat="true" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" s="6" customFormat="true" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3" t="s">
+    </row>
+    <row r="13" s="3" customFormat="true" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="true" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" s="6" customFormat="true" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" s="6" customFormat="true" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
+    <row r="14" s="3" customFormat="true" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" s="3" customFormat="true" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
